--- a/Carpeta de Estudio/E06/Repo1/Patrones de dsieño.xlsx
+++ b/Carpeta de Estudio/E06/Repo1/Patrones de dsieño.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Documentos\GitHub\MIC-Evolucion_patrones_de_diseno\Carpeta de Estudio\E06\Repo1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B9BEE6-9214-42E7-AD8E-75BB1B63FEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE4D4F-A771-4947-972C-E590D93C8137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Patrones utilizados</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Observer</t>
-  </si>
-  <si>
-    <t>MVC</t>
   </si>
   <si>
     <t>ConsultaPartidoController.java, VentanaController.java</t>
@@ -469,7 +466,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,12 +489,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4">
-        <v>3</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
@@ -505,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -516,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -527,18 +520,18 @@
         <v>3</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="8">
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
